--- a/src/test/resources/sample/Excel/expectedNewExistingTranslations.xlsx
+++ b/src/test/resources/sample/Excel/expectedNewExistingTranslations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t xml:space="preserve">Key</t>
   </si>
@@ -58,9 +58,6 @@
     <t xml:space="preserve">This is english text 2 Amended</t>
   </si>
   <si>
-    <t xml:space="preserve">This is Welsh text 1 Amended</t>
-  </si>
-  <si>
     <t xml:space="preserve">aaa.ddd.eee</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t xml:space="preserve">This is english text 6 Amended</t>
   </si>
   <si>
-    <t xml:space="preserve">This is Welsh text 3 Amended</t>
-  </si>
-  <si>
     <t xml:space="preserve">bbb.bbb.ccc</t>
   </si>
   <si>
@@ -146,6 +140,36 @@
   </si>
   <si>
     <t xml:space="preserve">This is Welsh text 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.bbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 9 Amended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.ccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.eee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggg.aaa.fff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 18 Amended</t>
   </si>
 </sst>
 </file>
@@ -155,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -193,12 +217,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +260,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,10 +283,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -303,18 +317,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8218623481781"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.2186234817814"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3927125506073"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0728744939271"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,132 +369,169 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="B18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/sample/Excel/expectedNewExistingTranslations.xlsx
+++ b/src/test/resources/sample/Excel/expectedNewExistingTranslations.xlsx
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welsh</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t xml:space="preserve">aaa.bbb.ccc</t>
   </si>
@@ -37,91 +28,91 @@
     <t xml:space="preserve">This is english text 1</t>
   </si>
   <si>
+    <t xml:space="preserve">aaa.ccc.ddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 2 Amended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.ddd.eee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.eee.fff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.fff.ggg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.ggg.hhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 6 Amended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.hhh.iii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa.iii.jjj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.aaa.bbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.bbb.ccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.ccc.ddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.ddd.eee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 4 with circumflex ystâd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb.eee.fff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is english text 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is Welsh text 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">ccc.aaa.bbb</t>
   </si>
   <si>
-    <t xml:space="preserve">This is english text 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is Welsh text 6 Amended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.ccc.ddd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.ccc.ddd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 2 Amended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.ddd.eee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.eee.fff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.aaa.bbb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.fff.ggg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.ggg.hhh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 6 Amended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.bbb.ccc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.ddd.eee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 4 with circumflex ystâd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.hhh.iii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaa.iii.jjj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbb.eee.fff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is english text 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is Welsh text 5</t>
   </si>
   <si>
     <t xml:space="preserve">ddd.aaa.bb</t>
@@ -179,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -201,21 +192,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,25 +236,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -302,12 +270,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:C50" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:C49" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:C49"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Key"/>
-    <tableColumn id="2" name="English"/>
-    <tableColumn id="3" name="Welsh"/>
+    <tableColumn id="1" name="aaa.bbb.ccc"/>
+    <tableColumn id="2" name="This is english text 1"/>
+    <tableColumn id="3" name=""/>
   </tableColumns>
 </table>
 </file>
@@ -317,148 +285,148 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3927125506073"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.0728744939271"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.9473684210526"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.1862348178138"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -467,7 +435,7 @@
       <c r="B15" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -478,7 +446,7 @@
       <c r="B16" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -487,18 +455,18 @@
         <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>41</v>
@@ -522,18 +490,8 @@
       <c r="B20" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="true" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
